--- a/data/trans_orig/IP07C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30F0D6A8-0299-4354-87AE-4EA412BCF5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4AD300-BC3B-4F57-8C60-BB57855D5B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{497A2F53-8D33-4748-8CB4-F59A0D96ED91}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13810FFF-3F24-4750-B54F-E0105581385B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="498">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 42,21%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,24%</t>
+    <t>7,16%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,01%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -103,7 +103,7 @@
     <t>5,63%</t>
   </si>
   <si>
-    <t>12,8%</t>
+    <t>12,92%</t>
   </si>
   <si>
     <t>2,92%</t>
@@ -112,7 +112,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>6,65%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -121,1441 +121,1417 @@
     <t>14,41%</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>23,56%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>43,63%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8637F65-AD5B-49F5-8973-961A9EE57BCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C0E705-C6BC-4FFD-AD91-C44CA5C1DFED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2456,7 +2432,7 @@
         <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2465,13 +2441,13 @@
         <v>4772</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2480,13 +2456,13 @@
         <v>6918</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2477,13 @@
         <v>42509</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -2516,13 +2492,13 @@
         <v>33346</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -2531,13 +2507,13 @@
         <v>75856</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2528,13 @@
         <v>49923</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -2567,13 +2543,13 @@
         <v>42861</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -2582,13 +2558,13 @@
         <v>92785</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2579,13 @@
         <v>116996</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -2618,13 +2594,13 @@
         <v>107488</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -2633,13 +2609,13 @@
         <v>224485</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2671,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2713,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2722,13 +2698,13 @@
         <v>793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2737,13 +2713,13 @@
         <v>793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2734,13 @@
         <v>2093</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2779,7 +2755,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2788,13 +2764,13 @@
         <v>2093</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2785,13 @@
         <v>13390</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2824,13 +2800,13 @@
         <v>9380</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -2839,13 +2815,13 @@
         <v>22770</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2836,13 @@
         <v>7638</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -2875,13 +2851,13 @@
         <v>15347</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -2890,13 +2866,13 @@
         <v>22986</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2887,13 @@
         <v>25277</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -2926,13 +2902,13 @@
         <v>27933</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -2941,13 +2917,13 @@
         <v>53211</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +2991,13 @@
         <v>4028</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3030,13 +3006,13 @@
         <v>2057</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3045,13 +3021,13 @@
         <v>6085</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3042,13 @@
         <v>4240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -3081,13 +3057,13 @@
         <v>7325</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3096,13 +3072,13 @@
         <v>11565</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3093,13 @@
         <v>61954</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -3132,13 +3108,13 @@
         <v>51431</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>172</v>
@@ -3147,13 +3123,13 @@
         <v>113385</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3144,13 @@
         <v>65670</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -3183,13 +3159,13 @@
         <v>66710</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>199</v>
@@ -3198,13 +3174,13 @@
         <v>132380</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3195,13 @@
         <v>169526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>237</v>
@@ -3234,13 +3210,13 @@
         <v>161059</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>491</v>
@@ -3249,13 +3225,13 @@
         <v>330585</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3287,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3330,7 +3306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707E6920-DCD6-4A12-AA33-D5FF5C5B14E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6212F6-928A-4EC4-888C-80315989823C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3347,7 +3323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3460,7 +3436,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3469,13 +3445,13 @@
         <v>768</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3484,13 +3460,13 @@
         <v>768</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3481,13 @@
         <v>823</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3520,13 +3496,13 @@
         <v>2487</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3535,13 +3511,13 @@
         <v>3310</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3532,13 @@
         <v>10900</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3571,13 +3547,13 @@
         <v>11881</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -3586,13 +3562,13 @@
         <v>22781</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3583,13 @@
         <v>7974</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3622,13 +3598,13 @@
         <v>7854</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -3637,13 +3613,13 @@
         <v>15827</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3634,13 @@
         <v>25465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -3673,13 +3649,13 @@
         <v>28637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
@@ -3688,13 +3664,13 @@
         <v>54101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3738,13 @@
         <v>1954</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3777,13 +3753,13 @@
         <v>2365</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3792,13 +3768,13 @@
         <v>4318</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3789,13 @@
         <v>8240</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -3828,13 +3804,13 @@
         <v>7616</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -3843,13 +3819,13 @@
         <v>15856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3840,13 @@
         <v>56296</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -3879,13 +3855,13 @@
         <v>44858</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M12" s="7">
         <v>146</v>
@@ -3894,13 +3870,13 @@
         <v>101154</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3891,13 @@
         <v>36765</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -3930,13 +3906,13 @@
         <v>47119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -3945,13 +3921,13 @@
         <v>83883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3942,13 @@
         <v>119548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>139</v>
@@ -3981,13 +3957,13 @@
         <v>97110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -3996,13 +3972,13 @@
         <v>216657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,7 +4034,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4076,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4085,13 +4061,13 @@
         <v>3727</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4100,13 +4076,13 @@
         <v>3727</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4097,13 @@
         <v>2244</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4136,13 +4112,13 @@
         <v>1737</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4151,13 +4127,13 @@
         <v>3981</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4148,13 @@
         <v>17199</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -4187,13 +4163,13 @@
         <v>12536</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -4202,13 +4178,13 @@
         <v>29736</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4199,13 @@
         <v>8344</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -4238,13 +4214,13 @@
         <v>15254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4253,13 +4229,13 @@
         <v>23598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4250,13 @@
         <v>27706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -4289,13 +4265,13 @@
         <v>26779</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>79</v>
@@ -4304,13 +4280,13 @@
         <v>54485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4354,13 @@
         <v>1954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4393,13 +4369,13 @@
         <v>6859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4408,13 +4384,13 @@
         <v>8813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4405,13 @@
         <v>11307</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -4444,13 +4420,13 @@
         <v>11840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -4459,13 +4435,13 @@
         <v>23147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>320</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4456,13 @@
         <v>84396</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H24" s="7">
         <v>98</v>
@@ -4495,13 +4471,13 @@
         <v>69275</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M24" s="7">
         <v>220</v>
@@ -4510,13 +4486,13 @@
         <v>153671</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4507,13 @@
         <v>53083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -4546,13 +4522,13 @@
         <v>70226</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -4561,13 +4537,13 @@
         <v>123310</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4558,13 @@
         <v>172718</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
         <v>218</v>
@@ -4597,13 +4573,13 @@
         <v>152525</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
         <v>467</v>
@@ -4612,13 +4588,13 @@
         <v>325244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,7 +4650,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF112F3-43DE-4050-B462-E83308CC68A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BD13A8-526F-4254-88D2-BB26501455BC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4710,7 +4686,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4817,13 +4793,13 @@
         <v>1444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4832,13 +4808,13 @@
         <v>617</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4847,13 +4823,13 @@
         <v>2061</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4844,13 @@
         <v>2150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4883,13 +4859,13 @@
         <v>3729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4898,13 +4874,13 @@
         <v>5878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4895,13 @@
         <v>1348</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4934,13 +4910,13 @@
         <v>2098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4949,13 +4925,13 @@
         <v>3446</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4946,13 @@
         <v>15911</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4985,13 +4961,13 @@
         <v>9336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -5000,13 +4976,13 @@
         <v>25247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +4997,13 @@
         <v>15785</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -5036,13 +5012,13 @@
         <v>14210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -5051,13 +5027,13 @@
         <v>29995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5107,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5140,13 +5116,13 @@
         <v>2313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5155,13 +5131,13 @@
         <v>3931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5152,13 @@
         <v>8871</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -5191,13 +5167,13 @@
         <v>12061</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -5206,13 +5182,13 @@
         <v>20932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5203,13 @@
         <v>46339</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -5242,13 +5218,13 @@
         <v>48937</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>131</v>
@@ -5257,13 +5233,13 @@
         <v>95275</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5254,13 @@
         <v>65095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>411</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5293,13 +5269,13 @@
         <v>57874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -5308,13 +5284,13 @@
         <v>122969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5305,13 @@
         <v>115140</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -5344,13 +5320,13 @@
         <v>120679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M14" s="7">
         <v>331</v>
@@ -5359,13 +5335,13 @@
         <v>235819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,7 +5397,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5433,13 +5409,13 @@
         <v>575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>428</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5448,13 +5424,13 @@
         <v>1418</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5463,13 +5439,13 @@
         <v>1994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5460,13 @@
         <v>2175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5499,13 +5475,13 @@
         <v>3431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -5514,13 +5490,13 @@
         <v>5607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5511,13 @@
         <v>19922</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -5550,13 +5526,13 @@
         <v>23390</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>447</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -5565,13 +5541,13 @@
         <v>43312</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5562,13 @@
         <v>15934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -5601,13 +5577,13 @@
         <v>17028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -5616,13 +5592,13 @@
         <v>32962</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5613,13 @@
         <v>36896</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -5652,13 +5628,13 @@
         <v>24947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -5667,13 +5643,13 @@
         <v>61843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5717,13 @@
         <v>3637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>470</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5756,13 +5732,13 @@
         <v>4348</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>461</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -5774,10 +5750,10 @@
         <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5768,13 @@
         <v>13196</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>270</v>
+        <v>466</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -5807,13 +5783,13 @@
         <v>19221</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5822,13 +5798,13 @@
         <v>32417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5819,13 @@
         <v>67609</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H24" s="7">
         <v>105</v>
@@ -5858,13 +5834,13 @@
         <v>74425</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>444</v>
+        <v>241</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M24" s="7">
         <v>197</v>
@@ -5873,13 +5849,13 @@
         <v>142033</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>489</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5870,13 @@
         <v>96940</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -5909,13 +5885,13 @@
         <v>84237</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -5924,13 +5900,13 @@
         <v>181177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>497</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5921,13 @@
         <v>167821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>491</v>
       </c>
       <c r="H26" s="7">
         <v>227</v>
@@ -5960,13 +5936,13 @@
         <v>159836</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M26" s="7">
         <v>458</v>
@@ -5975,13 +5951,13 @@
         <v>327657</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,7 +6013,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
